--- a/upload/JaivyButzelaar.xls.xlsx
+++ b/upload/JaivyButzelaar.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13-06-2022</t>
+          <t>21-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>

--- a/upload/JaivyButzelaar.xls.xlsx
+++ b/upload/JaivyButzelaar.xls.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21-06-2022</t>
+          <t>22-06-2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -16771,7 +16771,7 @@
       <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
       <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16801,7 +16801,7 @@
       <c r="D1114" t="inlineStr"/>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16816,7 +16816,7 @@
       <c r="D1115" t="inlineStr"/>
       <c r="E1115" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16831,7 +16831,7 @@
       <c r="D1116" t="inlineStr"/>
       <c r="E1116" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="D1117" t="inlineStr"/>
       <c r="E1117" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16861,7 +16861,7 @@
       <c r="D1118" t="inlineStr"/>
       <c r="E1118" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -16876,7 +16876,7 @@
       <c r="D1119" t="inlineStr"/>
       <c r="E1119" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -17183,7 +17183,7 @@
       <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       <c r="D1151" t="inlineStr"/>
       <c r="E1151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
@@ -17378,7 +17378,7 @@
       <c r="D1153" t="inlineStr"/>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>70%</t>
         </is>
       </c>
     </row>
